--- a/data/trans_orig/P76_M_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P76_M_2012-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20488A82-533D-4D1B-8475-47251B79A8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF99B918-BF50-483C-85B2-27FF5E926B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D17951C0-6DB1-421A-BE8E-E4999CABB97B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A1021F-8420-42B4-86A0-115F6E97363C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="256">
   <si>
     <t>Población según era la situación laboral de su madre cuando tenía 12 años en 2012 (Tasa respuesta: 94,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>52,5%</t>
   </si>
   <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
   </si>
   <si>
     <t>51,75%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
   </si>
   <si>
     <t>Trabajadores no cualificados</t>
@@ -104,721 +104,703 @@
     <t>39,25%</t>
   </si>
   <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales semicualificados</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>Trabajadores manuales cualificados</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
     <t>35,59%</t>
   </si>
   <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales semicualificados</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>Trabajadores manuales cualificados</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
   </si>
   <si>
     <t>33,54%</t>
   </si>
   <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
     <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1233,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F34BEC-939A-4BBD-B0D4-C9E04ADC2AE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EE20AB-5C3B-42F1-87B8-CCB0EA569FAC}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1684,7 +1666,7 @@
         <v>71</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1693,13 +1675,13 @@
         <v>1005</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1714,13 +1696,13 @@
         <v>914001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" s="7">
         <v>1187</v>
@@ -1729,13 +1711,13 @@
         <v>1273355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>2038</v>
@@ -1744,18 +1726,18 @@
         <v>2187356</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1767,13 +1749,13 @@
         <v>871988</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>676</v>
@@ -1782,13 +1764,13 @@
         <v>723309</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>1496</v>
@@ -1797,13 +1779,13 @@
         <v>1595298</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,13 +1800,13 @@
         <v>580742</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>509</v>
@@ -1833,13 +1815,13 @@
         <v>551466</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>1061</v>
@@ -1848,13 +1830,13 @@
         <v>1132208</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,13 +1851,13 @@
         <v>112902</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -1884,13 +1866,13 @@
         <v>120162</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>224</v>
@@ -1899,13 +1881,13 @@
         <v>233064</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,13 +1902,13 @@
         <v>158609</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>150</v>
@@ -1935,13 +1917,13 @@
         <v>162603</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>299</v>
@@ -1950,13 +1932,13 @@
         <v>321212</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1953,13 @@
         <v>90245</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -1986,13 +1968,13 @@
         <v>89038</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>172</v>
@@ -2001,7 +1983,7 @@
         <v>179283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>122</v>
@@ -2025,10 +2007,10 @@
         <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -2037,13 +2019,13 @@
         <v>20795</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -2052,13 +2034,13 @@
         <v>55103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2055,13 @@
         <v>10172</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2091,10 +2073,10 @@
         <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -2106,10 +2088,10 @@
         <v>67</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2106,13 @@
         <v>1858966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="7">
         <v>1557</v>
@@ -2139,13 +2121,13 @@
         <v>1671283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
         <v>3315</v>
@@ -2154,18 +2136,18 @@
         <v>3530249</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2177,13 +2159,13 @@
         <v>212592</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>160</v>
@@ -2192,13 +2174,13 @@
         <v>175402</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>350</v>
@@ -2207,13 +2189,13 @@
         <v>387994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2210,13 @@
         <v>90499</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -2243,13 +2225,13 @@
         <v>96340</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="7">
         <v>170</v>
@@ -2258,13 +2240,13 @@
         <v>186838</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2261,13 @@
         <v>18916</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2294,13 +2276,13 @@
         <v>23903</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -2309,13 +2291,13 @@
         <v>42819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2312,13 @@
         <v>62008</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -2345,13 +2327,13 @@
         <v>56812</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>108</v>
@@ -2447,7 +2429,7 @@
         <v>22165</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>187</v>
@@ -2498,13 +2480,13 @@
         <v>8439</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2513,13 +2495,13 @@
         <v>15358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2516,13 @@
         <v>466020</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="7">
         <v>392</v>
@@ -2549,13 +2531,13 @@
         <v>436622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M27" s="7">
         <v>815</v>
@@ -2564,13 +2546,13 @@
         <v>902641</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2569,13 @@
         <v>1564418</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>1454</v>
@@ -2602,7 +2584,7 @@
         <v>1557630</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>203</v>
@@ -2665,7 +2647,7 @@
         <v>2002</v>
       </c>
       <c r="N29" s="7">
-        <v>2148270</v>
+        <v>2148269</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>214</v>
@@ -2692,10 +2674,10 @@
         <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H30" s="7">
         <v>193</v>
@@ -2794,10 +2776,10 @@
         <v>234</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H32" s="7">
         <v>143</v>
@@ -2806,13 +2788,13 @@
         <v>154611</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="M32" s="7">
         <v>289</v>
@@ -2821,13 +2803,13 @@
         <v>309450</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2824,13 @@
         <v>59589</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H33" s="7">
         <v>44</v>
@@ -2857,13 +2839,13 @@
         <v>48387</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M33" s="7">
         <v>95</v>
@@ -2872,13 +2854,13 @@
         <v>107976</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2875,13 @@
         <v>17091</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -2908,13 +2890,13 @@
         <v>13354</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -2923,13 +2905,13 @@
         <v>30445</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2926,13 @@
         <v>3238987</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" s="7">
         <v>3136</v>
@@ -2959,33 +2941,33 @@
         <v>3381260</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M35" s="7">
         <v>6168</v>
       </c>
       <c r="N35" s="7">
-        <v>6620247</v>
+        <v>6620246</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P76_M_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P76_M_2012-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF99B918-BF50-483C-85B2-27FF5E926B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8859A38-F59F-44A8-B9D8-311574C1F82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6A1021F-8420-42B4-86A0-115F6E97363C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B215A1D-B39A-4A21-8BE7-D88D3E881426}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="259">
   <si>
     <t>Población según era la situación laboral de su madre cuando tenía 12 años en 2012 (Tasa respuesta: 94,96%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>52,5%</t>
   </si>
   <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
   </si>
   <si>
     <t>51,75%</t>
   </si>
   <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
   </si>
   <si>
     <t>Trabajadores no cualificados</t>
@@ -104,28 +104,28 @@
     <t>39,25%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>37,91%</t>
   </si>
   <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>Trabajadores manuales semicualificados</t>
@@ -134,28 +134,28 @@
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>Trabajadores manuales cualificados</t>
@@ -164,28 +164,28 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>Empleados de tipo adtvo y prof de apoyo gestión adtva y fina</t>
@@ -194,28 +194,28 @@
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>Direct.empresas con menos 10 asal. Prof. asociadas a una tit</t>
@@ -227,580 +227,589 @@
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>Direct AAPP y empresas 10 o más asal.Prof. asociadas a titul</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
   </si>
   <si>
     <t>46,07%</t>
   </si>
   <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1215,7 +1224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6EE20AB-5C3B-42F1-87B8-CCB0EA569FAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59677E2E-3E97-4D34-8838-DB25C92213AF}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,7 +1624,7 @@
         <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -1624,19 +1633,19 @@
         <v>8679</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -1645,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1660,13 +1669,13 @@
         <v>1005</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1675,13 +1684,13 @@
         <v>1005</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1696,13 +1705,13 @@
         <v>914001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>1187</v>
@@ -1711,13 +1720,13 @@
         <v>1273355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>2038</v>
@@ -1726,18 +1735,18 @@
         <v>2187356</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1749,13 +1758,13 @@
         <v>871988</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>676</v>
@@ -1764,13 +1773,13 @@
         <v>723309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>1496</v>
@@ -1779,13 +1788,13 @@
         <v>1595298</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1809,13 @@
         <v>580742</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>509</v>
@@ -1815,13 +1824,13 @@
         <v>551466</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>1061</v>
@@ -1830,13 +1839,13 @@
         <v>1132208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1851,13 +1860,13 @@
         <v>112902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>113</v>
@@ -1866,13 +1875,13 @@
         <v>120162</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>224</v>
@@ -1881,13 +1890,13 @@
         <v>233064</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1902,13 +1911,13 @@
         <v>158609</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>150</v>
@@ -1917,13 +1926,13 @@
         <v>162603</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M15" s="7">
         <v>299</v>
@@ -1932,13 +1941,13 @@
         <v>321212</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1962,13 @@
         <v>90245</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -1968,13 +1977,13 @@
         <v>89038</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M16" s="7">
         <v>172</v>
@@ -1983,13 +1992,13 @@
         <v>179283</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +2013,13 @@
         <v>34308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -2019,13 +2028,13 @@
         <v>20795</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>49</v>
@@ -2034,19 +2043,19 @@
         <v>55103</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7">
         <v>10</v>
@@ -2055,13 +2064,13 @@
         <v>10172</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -2070,13 +2079,13 @@
         <v>3910</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -2085,13 +2094,13 @@
         <v>14082</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2115,13 @@
         <v>1858966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>1557</v>
@@ -2121,13 +2130,13 @@
         <v>1671283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>3315</v>
@@ -2136,18 +2145,18 @@
         <v>3530249</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2159,13 +2168,13 @@
         <v>212592</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>160</v>
@@ -2174,13 +2183,13 @@
         <v>175402</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>350</v>
@@ -2189,13 +2198,13 @@
         <v>387994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2219,13 @@
         <v>90499</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
@@ -2225,13 +2234,13 @@
         <v>96340</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M21" s="7">
         <v>170</v>
@@ -2240,13 +2249,13 @@
         <v>186838</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2270,13 @@
         <v>18916</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2276,13 +2285,13 @@
         <v>23903</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -2291,13 +2300,13 @@
         <v>42819</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2321,13 @@
         <v>62008</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -2327,13 +2336,13 @@
         <v>56812</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M23" s="7">
         <v>108</v>
@@ -2342,13 +2351,13 @@
         <v>118820</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2372,13 @@
         <v>53056</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -2378,13 +2387,13 @@
         <v>53561</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M24" s="7">
         <v>95</v>
@@ -2393,13 +2402,13 @@
         <v>106617</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,13 +2423,13 @@
         <v>22029</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -2429,13 +2438,13 @@
         <v>22165</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -2444,19 +2453,19 @@
         <v>44194</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="7">
         <v>6</v>
@@ -2465,13 +2474,13 @@
         <v>6919</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -2480,13 +2489,13 @@
         <v>8439</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2495,13 +2504,13 @@
         <v>15358</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2525,13 @@
         <v>466020</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H27" s="7">
         <v>392</v>
@@ -2531,13 +2540,13 @@
         <v>436622</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>815</v>
@@ -2546,13 +2555,13 @@
         <v>902641</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2569,13 +2578,13 @@
         <v>1564418</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H28" s="7">
         <v>1454</v>
@@ -2584,7 +2593,7 @@
         <v>1557630</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>203</v>
@@ -2647,7 +2656,7 @@
         <v>2002</v>
       </c>
       <c r="N29" s="7">
-        <v>2148269</v>
+        <v>2148270</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>214</v>
@@ -2674,7 +2683,7 @@
         <v>217</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>218</v>
@@ -2704,10 +2713,10 @@
         <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2731,13 @@
         <v>247754</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H31" s="7">
         <v>259</v>
@@ -2737,13 +2746,13 @@
         <v>282408</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>488</v>
@@ -2752,13 +2761,13 @@
         <v>530162</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,10 +2782,10 @@
         <v>154839</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>235</v>
@@ -2794,7 +2803,7 @@
         <v>237</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>289</v>
@@ -2803,13 +2812,13 @@
         <v>309450</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2833,13 @@
         <v>59589</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H33" s="7">
         <v>44</v>
@@ -2839,13 +2848,13 @@
         <v>48387</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>246</v>
+        <v>193</v>
       </c>
       <c r="M33" s="7">
         <v>95</v>
@@ -2854,19 +2863,19 @@
         <v>107976</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34" s="7">
         <v>16</v>
@@ -2875,13 +2884,13 @@
         <v>17091</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -2893,10 +2902,10 @@
         <v>252</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -2905,13 +2914,13 @@
         <v>30445</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>139</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2935,13 @@
         <v>3238987</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>3136</v>
@@ -2941,33 +2950,33 @@
         <v>3381260</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M35" s="7">
         <v>6168</v>
       </c>
       <c r="N35" s="7">
-        <v>6620246</v>
+        <v>6620247</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
